--- a/results/[4_flexible_energy_market]_#_inv_capacity.xlsx
+++ b/results/[4_flexible_energy_market]_#_inv_capacity.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.04348420938011566</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.006706699999999982</v>
+        <v>0.003837439598571024</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1671220758403069</v>
+        <v>0.3718167378372526</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361375046</v>
+        <v>0.2494892361375017</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4932329000000002</v>
+        <v>0.3687520809646043</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2143727</v>
+        <v>0.597153</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04554729999999999</v>
+        <v>0.0822565</v>
       </c>
       <c r="N2" t="n">
-        <v>4.743966547392233</v>
+        <v>12.82009457445582</v>
       </c>
       <c r="O2" t="n">
-        <v>3.649165963789679</v>
+        <v>3.538061458581253</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1958298586126519</v>
+        <v>0.009260380363639123</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.04893136040142915</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3856907880221887</v>
+        <v>0.2216906708742613</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.368906691182963</v>
+        <v>0.4247748743219193</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9462865921503711</v>
+        <v>0.1116199591040388</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1457066166666667</v>
+        <v>0.04737166666666669</v>
       </c>
       <c r="N2" t="n">
-        <v>9.280395383428012</v>
+        <v>5.019473591562843</v>
       </c>
       <c r="O2" t="n">
-        <v>4.639064326839062</v>
+        <v>2.349307442578966</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2343129210336676</v>
+        <v>0.08320519174800101</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.02872957743582358</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8432085885737688</v>
+        <v>0.1707961561752257</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.647856558817036</v>
+        <v>0.4661253951561688</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7873819411829621</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3069654999999999</v>
+        <v>0.04858258333333332</v>
       </c>
       <c r="N2" t="n">
-        <v>18.45135138570255</v>
+        <v>8.420331737781321</v>
       </c>
       <c r="O2" t="n">
-        <v>18.19165466782612</v>
+        <v>4.913815709442911</v>
       </c>
     </row>
   </sheetData>

--- a/results/[4_flexible_energy_market]_#_inv_capacity.xlsx
+++ b/results/[4_flexible_energy_market]_#_inv_capacity.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.003837439598571024</v>
+        <v>0.003676399999999996</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3718167378372526</v>
+        <v>0.3723754890751533</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361375017</v>
+        <v>0.2494892361375709</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3687520809646043</v>
+        <v>0.3669021</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.597153</v>
+        <v>0.5961429402307629</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0822565</v>
+        <v>0.08239116666666667</v>
       </c>
       <c r="N2" t="n">
-        <v>12.82009457445582</v>
+        <v>12.86359876492471</v>
       </c>
       <c r="O2" t="n">
-        <v>3.538061458581253</v>
+        <v>3.475337169561459</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.009260380363639123</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04893136040142915</v>
+        <v>0.0730325638624291</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2216906708742613</v>
+        <v>0.3631100304009339</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4247748743219193</v>
+        <v>0.5879168652765249</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1116199591040388</v>
+        <v>0.2670648338483079</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04737166666666669</v>
+        <v>0.0815128833464558</v>
       </c>
       <c r="N2" t="n">
-        <v>5.019473591562843</v>
+        <v>9.16283576531012</v>
       </c>
       <c r="O2" t="n">
-        <v>2.349307442578966</v>
+        <v>3.798589981810552</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.08320519174800101</v>
+        <v>0.09755888307767839</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02872957743582358</v>
+        <v>0.02260130000007224</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1707961561752257</v>
+        <v>0.1572247809008663</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4661253951561688</v>
+        <v>0.4466232386880489</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04858258333333332</v>
+        <v>0.04770761665354414</v>
       </c>
       <c r="N2" t="n">
-        <v>8.420331737781321</v>
+        <v>8.874638901356263</v>
       </c>
       <c r="O2" t="n">
-        <v>4.913815709442911</v>
+        <v>5.275757813128981</v>
       </c>
     </row>
   </sheetData>

--- a/results/[4_flexible_energy_market]_#_inv_capacity.xlsx
+++ b/results/[4_flexible_energy_market]_#_inv_capacity.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.04348420938011566</v>
+        <v>0.1774173491026328</v>
       </c>
       <c r="B2" t="n">
-        <v>0.006706699999999982</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.698886550485734</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1671220758403069</v>
+        <v>0.31259354256</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.3247024241048815</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361375046</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.06880566916063374</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4932329000000002</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2143727</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04554729999999999</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.743966547392233</v>
+        <v>7.862176127468028</v>
       </c>
       <c r="O2" t="n">
-        <v>3.649165963789679</v>
+        <v>3.364628064996624</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1958298586126519</v>
+        <v>0.1784518902710296</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2.220795686899256</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3856907880221887</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.2403690565694545</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.1393700898393662</v>
       </c>
       <c r="I2" t="n">
-        <v>0.368906691182963</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9462865921503711</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1457066166666667</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9.280395383428012</v>
+        <v>26.09700856829305</v>
       </c>
       <c r="O2" t="n">
-        <v>4.639064326839062</v>
+        <v>6.646311143090875</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2343129210336676</v>
+        <v>0.9125903823656594</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.605660048695295</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8432085885737688</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.03015563704942759</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.1261817221222184</v>
       </c>
       <c r="I2" t="n">
-        <v>1.647856558817036</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7873819411829621</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3069654999999999</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18.45135138570255</v>
+        <v>26.02971581003769</v>
       </c>
       <c r="O2" t="n">
-        <v>18.19165466782612</v>
+        <v>7.285821150245596</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">

--- a/results/[4_flexible_energy_market]_#_inv_capacity.xlsx
+++ b/results/[4_flexible_energy_market]_#_inv_capacity.xlsx
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06880566916063374</v>
+        <v>0.06880566916063373</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.862176127468028</v>
+        <v>7.862176127467881</v>
       </c>
       <c r="O2" t="n">
-        <v>3.364628064996624</v>
+        <v>3.364628064996621</v>
       </c>
     </row>
   </sheetData>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>26.09700856829305</v>
+        <v>26.09700856829445</v>
       </c>
       <c r="O2" t="n">
-        <v>6.646311143090875</v>
+        <v>6.646311143090884</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9125903823656594</v>
+        <v>0.9125903823652091</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.605660048695295</v>
+        <v>1.605660048695328</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03015563704942759</v>
+        <v>0.03015563704984492</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1261817221222184</v>
+        <v>0.1261817221222202</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>26.02971581003769</v>
+        <v>26.02971581004649</v>
       </c>
       <c r="O2" t="n">
-        <v>7.285821150245596</v>
+        <v>7.285821150245502</v>
       </c>
     </row>
   </sheetData>

--- a/results/[4_flexible_energy_market]_#_inv_capacity.xlsx
+++ b/results/[4_flexible_energy_market]_#_inv_capacity.xlsx
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361375709</v>
+        <v>0.2494892361374987</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0.08239116666666667</v>
       </c>
       <c r="N2" t="n">
-        <v>12.86359876492471</v>
+        <v>12.8635987649262</v>
       </c>
       <c r="O2" t="n">
-        <v>3.475337169561459</v>
+        <v>3.475337169561457</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0730325638624291</v>
+        <v>0.07303256386250129</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3631100304009339</v>
+        <v>0.3631100304008695</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5879168652765249</v>
+        <v>0.587916865276513</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2670648338483079</v>
+        <v>0.2670648338483199</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0815128833464558</v>
+        <v>0.08151288334645516</v>
       </c>
       <c r="N2" t="n">
-        <v>9.16283576531012</v>
+        <v>9.162835765309516</v>
       </c>
       <c r="O2" t="n">
-        <v>3.798589981810552</v>
+        <v>3.7985899818106</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.09755888307767839</v>
+        <v>0.0975588830776834</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02260130000007224</v>
+        <v>0.02260130000000005</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1572247809008663</v>
+        <v>0.1572247809009349</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4466232386880489</v>
+        <v>0.4466232386880605</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04770761665354414</v>
+        <v>0.04770761665354478</v>
       </c>
       <c r="N2" t="n">
-        <v>8.874638901356263</v>
+        <v>8.874638901356239</v>
       </c>
       <c r="O2" t="n">
-        <v>5.275757813128981</v>
+        <v>5.275757813128776</v>
       </c>
     </row>
   </sheetData>
